--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouny\eclipse-workspace\demoshopp\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924E085B-6C50-4D62-9465-6A17A4D78B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="8400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterSheet" sheetId="1" r:id="rId1"/>
     <sheet name="UserApi" sheetId="3" r:id="rId2"/>
     <sheet name="LoginSheet" sheetId="2" r:id="rId3"/>
+    <sheet name="InvalidLoginSheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Gender</t>
   </si>
@@ -71,6 +68,51 @@
     <t>snvigw@344</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>njvenkat</t>
+  </si>
+  <si>
+    <t>eneree@gmail.com</t>
+  </si>
+  <si>
+    <t>wbrbwg</t>
+  </si>
+  <si>
+    <t>tudy</t>
+  </si>
+  <si>
+    <t>evewwfv@gmail.com</t>
+  </si>
+  <si>
+    <t>vegewgghh</t>
+  </si>
+  <si>
+    <t>prasss</t>
+  </si>
+  <si>
+    <t>vyukjdhs@gmial.com</t>
+  </si>
+  <si>
+    <t>gggegage</t>
+  </si>
+  <si>
+    <t>jassse</t>
+  </si>
+  <si>
+    <t>vrehhgsbsr@gmail.com</t>
+  </si>
+  <si>
+    <t>avevegh</t>
+  </si>
+  <si>
     <t>Emali</t>
   </si>
   <si>
@@ -86,56 +128,26 @@
     <t>Mounya@123</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>njvenkat</t>
-  </si>
-  <si>
-    <t>tudy</t>
-  </si>
-  <si>
-    <t>prasss</t>
-  </si>
-  <si>
-    <t>jassse</t>
-  </si>
-  <si>
-    <t>eneree@gmail.com</t>
-  </si>
-  <si>
-    <t>evewwfv@gmail.com</t>
-  </si>
-  <si>
-    <t>vyukjdhs@gmial.com</t>
-  </si>
-  <si>
-    <t>vrehhgsbsr@gmail.com</t>
-  </si>
-  <si>
-    <t>wbrbwg</t>
-  </si>
-  <si>
-    <t>avevegh</t>
-  </si>
-  <si>
-    <t>gggegage</t>
-  </si>
-  <si>
-    <t>vegewgghh</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>veneetne@123</t>
+  </si>
+  <si>
+    <t>erber@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +160,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,18 +168,341 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -174,12 +510,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -187,166 +762,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <b val="1"/>
         <color theme="1"/>
       </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -357,7 +862,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -385,40 +890,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,19 +1295,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -734,105 +1353,113 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="aenvine@12232"/>
+    <hyperlink ref="D3" r:id="rId2" display="snvigw@344"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FD661A-310E-4C30-B20C-E2DE8E1E9764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C1A512FE-DCED-415A-81C2-627CAEA671FE}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{5D11E86C-D6C0-41B4-886F-F62438FD1858}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{DD6213C2-EA14-4B1F-8888-79CA573F648D}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{15997B1E-BD69-46BA-B700-891D9D765915}"/>
+    <hyperlink ref="B2" r:id="rId1" display="eneree@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="evewwfv@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="vyukjdhs@gmial.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="vrehhgsbsr@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="23.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -840,27 +1467,78 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+    <row r="3" ht="15" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:narijavvadi@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" tooltip="mailto:Nari@123" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="narijavvadi@gmail.com" tooltip="mailto:narijavvadi@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Nari@123" tooltip="mailto:Nari@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="mounyajavvadi@gmail.com" tooltip="mailto:mounyajavvadi@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Mounya@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="29.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="password" tooltip="mailto:erber@123"/>
+    <hyperlink ref="B2" r:id="rId2" display="veneetne@123"/>
+    <hyperlink ref="A1" r:id="rId3" display="Email"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>